--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vegfc-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vegfc-Kdr.xlsx
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Vegfc</t>
+  </si>
+  <si>
+    <t>Kdr</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Vegfc</t>
-  </si>
-  <si>
-    <t>Kdr</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.551373666666667</v>
+        <v>4.948739333333333</v>
       </c>
       <c r="H2">
-        <v>16.654121</v>
+        <v>14.846218</v>
       </c>
       <c r="I2">
-        <v>0.5268476165554096</v>
+        <v>0.4917593264632457</v>
       </c>
       <c r="J2">
-        <v>0.5268476165554096</v>
+        <v>0.4917593264632457</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>142.158333</v>
+        <v>119.0164006666667</v>
       </c>
       <c r="N2">
-        <v>426.474999</v>
+        <v>357.049202</v>
       </c>
       <c r="O2">
-        <v>0.9500780504241082</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="P2">
-        <v>0.9500780504241081</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="Q2">
-        <v>789.174026313431</v>
+        <v>588.9811432908928</v>
       </c>
       <c r="R2">
-        <v>7102.566236820879</v>
+        <v>5300.830289618036</v>
       </c>
       <c r="S2">
-        <v>0.5005463564075516</v>
+        <v>0.45125202912622</v>
       </c>
       <c r="T2">
-        <v>0.5005463564075516</v>
+        <v>0.4512520291262201</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.551373666666667</v>
+        <v>4.948739333333333</v>
       </c>
       <c r="H3">
-        <v>16.654121</v>
+        <v>14.846218</v>
       </c>
       <c r="I3">
-        <v>0.5268476165554096</v>
+        <v>0.4917593264632457</v>
       </c>
       <c r="J3">
-        <v>0.5268476165554096</v>
+        <v>0.4917593264632457</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>0.6831970000000001</v>
       </c>
       <c r="O3">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330732</v>
       </c>
       <c r="P3">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330731</v>
       </c>
       <c r="Q3">
-        <v>1.264227278315222</v>
+        <v>1.126987955438445</v>
       </c>
       <c r="R3">
-        <v>11.378045504837</v>
+        <v>10.142891598946</v>
       </c>
       <c r="S3">
-        <v>0.0008018565446050217</v>
+        <v>0.0008634497173388059</v>
       </c>
       <c r="T3">
-        <v>0.0008018565446050215</v>
+        <v>0.0008634497173388059</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.551373666666667</v>
+        <v>4.948739333333333</v>
       </c>
       <c r="H4">
-        <v>16.654121</v>
+        <v>14.846218</v>
       </c>
       <c r="I4">
-        <v>0.5268476165554096</v>
+        <v>0.4917593264632457</v>
       </c>
       <c r="J4">
-        <v>0.5268476165554096</v>
+        <v>0.4917593264632457</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.576418</v>
+        <v>7.816301333333333</v>
       </c>
       <c r="N4">
-        <v>13.729254</v>
+        <v>23.448904</v>
       </c>
       <c r="O4">
-        <v>0.03058529317001626</v>
+        <v>0.06026442877207647</v>
       </c>
       <c r="P4">
-        <v>0.03058529317001625</v>
+        <v>0.06026442877207646</v>
       </c>
       <c r="Q4">
-        <v>25.40540637285934</v>
+        <v>38.68083784945244</v>
       </c>
       <c r="R4">
-        <v>228.648657355734</v>
+        <v>348.127540645072</v>
       </c>
       <c r="S4">
-        <v>0.01611378880827151</v>
+        <v>0.02963559490264856</v>
       </c>
       <c r="T4">
-        <v>0.01611378880827151</v>
+        <v>0.02963559490264856</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.551373666666667</v>
+        <v>4.948739333333333</v>
       </c>
       <c r="H5">
-        <v>16.654121</v>
+        <v>14.846218</v>
       </c>
       <c r="I5">
-        <v>0.5268476165554096</v>
+        <v>0.4917593264632457</v>
       </c>
       <c r="J5">
-        <v>0.5268476165554096</v>
+        <v>0.4917593264632457</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1328223333333333</v>
+        <v>0.105045</v>
       </c>
       <c r="N5">
-        <v>0.398467</v>
+        <v>0.315135</v>
       </c>
       <c r="O5">
-        <v>0.0008876833376071904</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="P5">
-        <v>0.0008876833376071903</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="Q5">
-        <v>0.737346403611889</v>
+        <v>0.51984032327</v>
       </c>
       <c r="R5">
-        <v>6.636117632507</v>
+        <v>4.67856290943</v>
       </c>
       <c r="S5">
-        <v>0.0004676738506742992</v>
+        <v>0.0003982793054910437</v>
       </c>
       <c r="T5">
-        <v>0.0004676738506742992</v>
+        <v>0.0003982793054910437</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.551373666666667</v>
+        <v>4.948739333333333</v>
       </c>
       <c r="H6">
-        <v>16.654121</v>
+        <v>14.846218</v>
       </c>
       <c r="I6">
-        <v>0.5268476165554096</v>
+        <v>0.4917593264632457</v>
       </c>
       <c r="J6">
-        <v>0.5268476165554096</v>
+        <v>0.4917593264632457</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.532751666666667</v>
+        <v>2.534602333333333</v>
       </c>
       <c r="N6">
-        <v>7.598255</v>
+        <v>7.603807</v>
       </c>
       <c r="O6">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="P6">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="Q6">
-        <v>14.06025090653944</v>
+        <v>12.54308626132511</v>
       </c>
       <c r="R6">
-        <v>126.542258158855</v>
+        <v>112.887776351926</v>
       </c>
       <c r="S6">
-        <v>0.008917940944307173</v>
+        <v>0.009609973411547229</v>
       </c>
       <c r="T6">
-        <v>0.008917940944307173</v>
+        <v>0.009609973411547231</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.979395333333334</v>
+        <v>3.979395333333333</v>
       </c>
       <c r="H7">
         <v>11.938186</v>
       </c>
       <c r="I7">
-        <v>0.3776605706236408</v>
+        <v>0.395435006178203</v>
       </c>
       <c r="J7">
-        <v>0.3776605706236408</v>
+        <v>0.395435006178203</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>142.158333</v>
+        <v>119.0164006666667</v>
       </c>
       <c r="N7">
-        <v>426.474999</v>
+        <v>357.049202</v>
       </c>
       <c r="O7">
-        <v>0.9500780504241082</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="P7">
-        <v>0.9500780504241081</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="Q7">
-        <v>565.7042069346461</v>
+        <v>473.6133094030635</v>
       </c>
       <c r="R7">
-        <v>5091.337862411814</v>
+        <v>4262.519784627571</v>
       </c>
       <c r="S7">
-        <v>0.3588070186601649</v>
+        <v>0.3628621549667553</v>
       </c>
       <c r="T7">
-        <v>0.3588070186601648</v>
+        <v>0.3628621549667553</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.979395333333334</v>
+        <v>3.979395333333333</v>
       </c>
       <c r="H8">
         <v>11.938186</v>
       </c>
       <c r="I8">
-        <v>0.3776605706236408</v>
+        <v>0.395435006178203</v>
       </c>
       <c r="J8">
-        <v>0.3776605706236408</v>
+        <v>0.395435006178203</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>0.6831970000000001</v>
       </c>
       <c r="O8">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330732</v>
       </c>
       <c r="P8">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330731</v>
       </c>
       <c r="Q8">
-        <v>0.9062369845157779</v>
+        <v>0.9062369845157777</v>
       </c>
       <c r="R8">
-        <v>8.156132860642002</v>
+        <v>8.156132860642</v>
       </c>
       <c r="S8">
-        <v>0.0005747954259976883</v>
+        <v>0.0006943198144630565</v>
       </c>
       <c r="T8">
-        <v>0.0005747954259976882</v>
+        <v>0.0006943198144630565</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.979395333333334</v>
+        <v>3.979395333333333</v>
       </c>
       <c r="H9">
         <v>11.938186</v>
       </c>
       <c r="I9">
-        <v>0.3776605706236408</v>
+        <v>0.395435006178203</v>
       </c>
       <c r="J9">
-        <v>0.3776605706236408</v>
+        <v>0.395435006178203</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.576418</v>
+        <v>7.816301333333333</v>
       </c>
       <c r="N9">
-        <v>13.729254</v>
+        <v>23.448904</v>
       </c>
       <c r="O9">
-        <v>0.03058529317001626</v>
+        <v>0.06026442877207647</v>
       </c>
       <c r="P9">
-        <v>0.03058529317001625</v>
+        <v>0.06026442877207646</v>
       </c>
       <c r="Q9">
-        <v>18.21137643258267</v>
+        <v>31.10415304979377</v>
       </c>
       <c r="R9">
-        <v>163.902387893244</v>
+        <v>279.937377448144</v>
       </c>
       <c r="S9">
-        <v>0.01155085927127968</v>
+        <v>0.02383066476381193</v>
       </c>
       <c r="T9">
-        <v>0.01155085927127968</v>
+        <v>0.02383066476381193</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.979395333333334</v>
+        <v>3.979395333333333</v>
       </c>
       <c r="H10">
         <v>11.938186</v>
       </c>
       <c r="I10">
-        <v>0.3776605706236408</v>
+        <v>0.395435006178203</v>
       </c>
       <c r="J10">
-        <v>0.3776605706236408</v>
+        <v>0.395435006178203</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1328223333333333</v>
+        <v>0.105045</v>
       </c>
       <c r="N10">
-        <v>0.398467</v>
+        <v>0.315135</v>
       </c>
       <c r="O10">
-        <v>0.0008876833376071904</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="P10">
-        <v>0.0008876833376071903</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="Q10">
-        <v>0.5285525734291112</v>
+        <v>0.41801558279</v>
       </c>
       <c r="R10">
-        <v>4.756973160862001</v>
+        <v>3.76214024511</v>
       </c>
       <c r="S10">
-        <v>0.0003352429958138295</v>
+        <v>0.0003202655672241173</v>
       </c>
       <c r="T10">
-        <v>0.0003352429958138295</v>
+        <v>0.0003202655672241173</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.979395333333334</v>
+        <v>3.979395333333333</v>
       </c>
       <c r="H11">
         <v>11.938186</v>
       </c>
       <c r="I11">
-        <v>0.3776605706236408</v>
+        <v>0.395435006178203</v>
       </c>
       <c r="J11">
-        <v>0.3776605706236408</v>
+        <v>0.395435006178203</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.532751666666667</v>
+        <v>2.534602333333333</v>
       </c>
       <c r="N11">
-        <v>7.598255</v>
+        <v>7.603807</v>
       </c>
       <c r="O11">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="P11">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="Q11">
-        <v>10.07882016282556</v>
+        <v>10.08618469712244</v>
       </c>
       <c r="R11">
-        <v>90.70938146543001</v>
+        <v>90.775662274102</v>
       </c>
       <c r="S11">
-        <v>0.006392654270384772</v>
+        <v>0.007727601065948605</v>
       </c>
       <c r="T11">
-        <v>0.006392654270384772</v>
+        <v>0.007727601065948607</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.044456</v>
+        <v>1.113241666666667</v>
       </c>
       <c r="H12">
-        <v>0.133368</v>
+        <v>3.339725</v>
       </c>
       <c r="I12">
-        <v>0.004219052625158775</v>
+        <v>0.1106235215306998</v>
       </c>
       <c r="J12">
-        <v>0.004219052625158775</v>
+        <v>0.1106235215306998</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>142.158333</v>
+        <v>119.0164006666667</v>
       </c>
       <c r="N12">
-        <v>426.474999</v>
+        <v>357.049202</v>
       </c>
       <c r="O12">
-        <v>0.9500780504241082</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="P12">
-        <v>0.9500780504241081</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="Q12">
-        <v>6.319790851848</v>
+        <v>132.4940162388278</v>
       </c>
       <c r="R12">
-        <v>56.878117666632</v>
+        <v>1192.44614614945</v>
       </c>
       <c r="S12">
-        <v>0.004008429292747564</v>
+        <v>0.101511218747668</v>
       </c>
       <c r="T12">
-        <v>0.004008429292747564</v>
+        <v>0.101511218747668</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.044456</v>
+        <v>1.113241666666667</v>
       </c>
       <c r="H13">
-        <v>0.133368</v>
+        <v>3.339725</v>
       </c>
       <c r="I13">
-        <v>0.004219052625158775</v>
+        <v>0.1106235215306998</v>
       </c>
       <c r="J13">
-        <v>0.004219052625158775</v>
+        <v>0.1106235215306998</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>0.6831970000000001</v>
       </c>
       <c r="O13">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330732</v>
       </c>
       <c r="P13">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330731</v>
       </c>
       <c r="Q13">
-        <v>0.01012406861066667</v>
+        <v>0.253521122313889</v>
       </c>
       <c r="R13">
-        <v>0.09111661749600002</v>
+        <v>2.281690100825001</v>
       </c>
       <c r="S13">
-        <v>6.421353828333693E-06</v>
+        <v>0.0001942369839402428</v>
       </c>
       <c r="T13">
-        <v>6.421353828333692E-06</v>
+        <v>0.0001942369839402428</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,25 +1275,25 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.044456</v>
+        <v>1.113241666666667</v>
       </c>
       <c r="H14">
-        <v>0.133368</v>
+        <v>3.339725</v>
       </c>
       <c r="I14">
-        <v>0.004219052625158775</v>
+        <v>0.1106235215306998</v>
       </c>
       <c r="J14">
-        <v>0.004219052625158775</v>
+        <v>0.1106235215306998</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.576418</v>
+        <v>7.816301333333333</v>
       </c>
       <c r="N14">
-        <v>13.729254</v>
+        <v>23.448904</v>
       </c>
       <c r="O14">
-        <v>0.03058529317001626</v>
+        <v>0.06026442877207647</v>
       </c>
       <c r="P14">
-        <v>0.03058529317001625</v>
+        <v>0.06026442877207646</v>
       </c>
       <c r="Q14">
-        <v>0.203449238608</v>
+        <v>8.70143232348889</v>
       </c>
       <c r="R14">
-        <v>1.831043147472</v>
+        <v>78.3128909114</v>
       </c>
       <c r="S14">
-        <v>0.0001290409614402078</v>
+        <v>0.006666663333803127</v>
       </c>
       <c r="T14">
-        <v>0.0001290409614402078</v>
+        <v>0.006666663333803127</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,25 +1337,25 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.044456</v>
+        <v>1.113241666666667</v>
       </c>
       <c r="H15">
-        <v>0.133368</v>
+        <v>3.339725</v>
       </c>
       <c r="I15">
-        <v>0.004219052625158775</v>
+        <v>0.1106235215306998</v>
       </c>
       <c r="J15">
-        <v>0.004219052625158775</v>
+        <v>0.1106235215306998</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1328223333333333</v>
+        <v>0.105045</v>
       </c>
       <c r="N15">
-        <v>0.398467</v>
+        <v>0.315135</v>
       </c>
       <c r="O15">
-        <v>0.0008876833376071904</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="P15">
-        <v>0.0008876833376071903</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="Q15">
-        <v>0.005904749650666668</v>
+        <v>0.116940470875</v>
       </c>
       <c r="R15">
-        <v>0.053142746856</v>
+        <v>1.052464237875</v>
       </c>
       <c r="S15">
-        <v>3.745182715841319E-06</v>
+        <v>8.959476100452492E-05</v>
       </c>
       <c r="T15">
-        <v>3.745182715841319E-06</v>
+        <v>8.959476100452492E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,25 +1399,25 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.044456</v>
+        <v>1.113241666666667</v>
       </c>
       <c r="H16">
-        <v>0.133368</v>
+        <v>3.339725</v>
       </c>
       <c r="I16">
-        <v>0.004219052625158775</v>
+        <v>0.1106235215306998</v>
       </c>
       <c r="J16">
-        <v>0.004219052625158775</v>
+        <v>0.1106235215306998</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.532751666666667</v>
+        <v>2.534602333333333</v>
       </c>
       <c r="N16">
-        <v>7.598255</v>
+        <v>7.603807</v>
       </c>
       <c r="O16">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="P16">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="Q16">
-        <v>0.1125960080933333</v>
+        <v>2.821624925897223</v>
       </c>
       <c r="R16">
-        <v>1.01336407284</v>
+        <v>25.394624333075</v>
       </c>
       <c r="S16">
-        <v>7.141583442682801E-05</v>
+        <v>0.002161807704283985</v>
       </c>
       <c r="T16">
-        <v>7.141583442682801E-05</v>
+        <v>0.002161807704283985</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.9617376666666667</v>
+        <v>0.02195966666666667</v>
       </c>
       <c r="H17">
-        <v>2.885213</v>
+        <v>0.06587899999999999</v>
       </c>
       <c r="I17">
-        <v>0.09127276019579077</v>
+        <v>0.002182145827851387</v>
       </c>
       <c r="J17">
-        <v>0.09127276019579077</v>
+        <v>0.002182145827851387</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>142.158333</v>
+        <v>119.0164006666667</v>
       </c>
       <c r="N17">
-        <v>426.474999</v>
+        <v>357.049202</v>
       </c>
       <c r="O17">
-        <v>0.9500780504241082</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="P17">
-        <v>0.9500780504241081</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="Q17">
-        <v>136.719023476643</v>
+        <v>2.613560486506444</v>
       </c>
       <c r="R17">
-        <v>1230.471211289787</v>
+        <v>23.522044378558</v>
       </c>
       <c r="S17">
-        <v>0.08671624606364403</v>
+        <v>0.002002397676418752</v>
       </c>
       <c r="T17">
-        <v>0.08671624606364403</v>
+        <v>0.002002397676418752</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.9617376666666667</v>
+        <v>0.02195966666666667</v>
       </c>
       <c r="H18">
-        <v>2.885213</v>
+        <v>0.06587899999999999</v>
       </c>
       <c r="I18">
-        <v>0.09127276019579077</v>
+        <v>0.002182145827851387</v>
       </c>
       <c r="J18">
-        <v>0.09127276019579077</v>
+        <v>0.002182145827851387</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>0.6831970000000001</v>
       </c>
       <c r="O18">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330732</v>
       </c>
       <c r="P18">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330731</v>
       </c>
       <c r="Q18">
-        <v>0.2190187628845556</v>
+        <v>0.005000926129222222</v>
       </c>
       <c r="R18">
-        <v>1.971168865961</v>
+        <v>0.045008335163</v>
       </c>
       <c r="S18">
-        <v>0.000138916183365636</v>
+        <v>3.831494588626086E-06</v>
       </c>
       <c r="T18">
-        <v>0.000138916183365636</v>
+        <v>3.831494588626085E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1585,25 +1585,25 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.9617376666666667</v>
+        <v>0.02195966666666667</v>
       </c>
       <c r="H19">
-        <v>2.885213</v>
+        <v>0.06587899999999999</v>
       </c>
       <c r="I19">
-        <v>0.09127276019579077</v>
+        <v>0.002182145827851387</v>
       </c>
       <c r="J19">
-        <v>0.09127276019579077</v>
+        <v>0.002182145827851387</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.576418</v>
+        <v>7.816301333333333</v>
       </c>
       <c r="N19">
-        <v>13.729254</v>
+        <v>23.448904</v>
       </c>
       <c r="O19">
-        <v>0.03058529317001626</v>
+        <v>0.06026442877207647</v>
       </c>
       <c r="P19">
-        <v>0.03058529317001625</v>
+        <v>0.06026442877207646</v>
       </c>
       <c r="Q19">
-        <v>4.401313569011334</v>
+        <v>0.1716433718462222</v>
       </c>
       <c r="R19">
-        <v>39.61182212110201</v>
+        <v>1.544790346616</v>
       </c>
       <c r="S19">
-        <v>0.002791604129024851</v>
+        <v>0.0001315057718128337</v>
       </c>
       <c r="T19">
-        <v>0.002791604129024851</v>
+        <v>0.0001315057718128337</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,25 +1647,25 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.9617376666666667</v>
+        <v>0.02195966666666667</v>
       </c>
       <c r="H20">
-        <v>2.885213</v>
+        <v>0.06587899999999999</v>
       </c>
       <c r="I20">
-        <v>0.09127276019579077</v>
+        <v>0.002182145827851387</v>
       </c>
       <c r="J20">
-        <v>0.09127276019579077</v>
+        <v>0.002182145827851387</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1328223333333333</v>
+        <v>0.105045</v>
       </c>
       <c r="N20">
-        <v>0.398467</v>
+        <v>0.315135</v>
       </c>
       <c r="O20">
-        <v>0.0008876833376071904</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="P20">
-        <v>0.0008876833376071903</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="Q20">
-        <v>0.1277402409412222</v>
+        <v>0.002306753185</v>
       </c>
       <c r="R20">
-        <v>1.149662168471</v>
+        <v>0.020760778665</v>
       </c>
       <c r="S20">
-        <v>8.102130840322026E-05</v>
+        <v>1.767335112985978E-06</v>
       </c>
       <c r="T20">
-        <v>8.102130840322025E-05</v>
+        <v>1.767335112985978E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,25 +1709,25 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.9617376666666667</v>
+        <v>0.02195966666666667</v>
       </c>
       <c r="H21">
-        <v>2.885213</v>
+        <v>0.06587899999999999</v>
       </c>
       <c r="I21">
-        <v>0.09127276019579077</v>
+        <v>0.002182145827851387</v>
       </c>
       <c r="J21">
-        <v>0.09127276019579077</v>
+        <v>0.002182145827851387</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.532751666666667</v>
+        <v>2.534602333333333</v>
       </c>
       <c r="N21">
-        <v>7.598255</v>
+        <v>7.603807</v>
       </c>
       <c r="O21">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="P21">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="Q21">
-        <v>2.435842678146111</v>
+        <v>0.05565902237255555</v>
       </c>
       <c r="R21">
-        <v>21.922584103315</v>
+        <v>0.500931201353</v>
       </c>
       <c r="S21">
-        <v>0.001544972511353036</v>
+        <v>4.264354991818926E-05</v>
       </c>
       <c r="T21">
-        <v>0.001544972511353036</v>
+        <v>4.264354991818926E-05</v>
       </c>
     </row>
   </sheetData>
